--- a/Questions/4.xlsx
+++ b/Questions/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\شغل خاص\مسابقة\Questions\4-20240719T063852Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E6C98A-EBCE-4C2D-A06B-AD3AD4336CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA02C5F-3310-4AA1-A81B-CA701745DAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>ناتج ضرب ٣ ٤ ١ × ٣</t>
-  </si>
-  <si>
     <t xml:space="preserve">باقي القسمة يكون دائما ........ المقسوم عليه </t>
   </si>
   <si>
@@ -349,9 +346,6 @@
   </si>
   <si>
     <t xml:space="preserve">الكبد </t>
-  </si>
-  <si>
-    <t>(ب+ج)</t>
   </si>
   <si>
     <t>/ تقدير ناتج طرح 9250350 - 4870111</t>
@@ -839,6 +833,12 @@
   </si>
   <si>
     <t>النصيرات</t>
+  </si>
+  <si>
+    <t>البنكرياس والكبد</t>
+  </si>
+  <si>
+    <t>ناتج ضرب 143 × 3</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="C2">
         <v>429</v>
@@ -1250,16 +1250,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -1273,19 +1273,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>342</v>
@@ -1325,19 +1325,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1351,22 +1351,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
       </c>
       <c r="I7">
         <v>25</v>
@@ -1377,16 +1377,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1400,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -1426,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1452,22 +1452,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>25</v>
@@ -1478,19 +1478,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -1504,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>1000</v>
@@ -1530,7 +1530,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>974997</v>
@@ -1556,7 +1556,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15">
         <v>1244285</v>
@@ -1571,7 +1571,7 @@
         <v>1144285</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15">
         <v>25</v>
@@ -1582,22 +1582,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16">
         <v>25</v>
@@ -1608,22 +1608,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17">
         <v>25</v>
@@ -1634,16 +1634,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1657,16 +1657,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1680,16 +1680,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1703,16 +1703,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -1726,16 +1726,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -1749,16 +1749,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1772,16 +1772,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
         <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>80</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
@@ -1795,19 +1795,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>84</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>85</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>86</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -1821,19 +1821,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>91</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1847,22 +1847,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
         <v>95</v>
       </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I27">
         <v>25</v>
@@ -1873,19 +1873,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>98</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>99</v>
-      </c>
-      <c r="F28" t="s">
-        <v>100</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -1899,22 +1899,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
         <v>101</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>102</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>103</v>
       </c>
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29">
         <v>25</v>
@@ -1925,22 +1925,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>106</v>
       </c>
-      <c r="E30" t="s">
-        <v>107</v>
-      </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I30">
         <v>25</v>
@@ -1951,19 +1951,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>115</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>116</v>
-      </c>
-      <c r="E31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" t="s">
-        <v>118</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
@@ -1977,19 +1977,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>121</v>
-      </c>
-      <c r="E32" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" t="s">
-        <v>123</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -2003,22 +2003,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
         <v>124</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>125</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>126</v>
       </c>
-      <c r="E33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
-      </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I33">
         <v>25</v>
@@ -2029,19 +2029,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
         <v>129</v>
       </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" t="s">
-        <v>131</v>
-      </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
         <v>133</v>
       </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" t="s">
-        <v>135</v>
-      </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
@@ -2081,19 +2081,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
         <v>138</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" t="s">
         <v>140</v>
-      </c>
-      <c r="D36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" t="s">
-        <v>142</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -2107,19 +2107,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>144</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>145</v>
-      </c>
-      <c r="E37" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" t="s">
-        <v>147</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -2133,19 +2133,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
         <v>148</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>149</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>150</v>
-      </c>
-      <c r="E38" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" t="s">
-        <v>152</v>
       </c>
       <c r="G38" t="s">
         <v>6</v>
@@ -2159,19 +2159,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>154</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>155</v>
-      </c>
-      <c r="E39" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" t="s">
-        <v>157</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -2185,19 +2185,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
         <v>158</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>159</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>160</v>
-      </c>
-      <c r="E40" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" t="s">
-        <v>162</v>
       </c>
       <c r="G40" t="s">
         <v>6</v>
@@ -2211,19 +2211,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
         <v>163</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>164</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>165</v>
-      </c>
-      <c r="E41" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" t="s">
-        <v>167</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -2237,19 +2237,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
         <v>168</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
         <v>170</v>
-      </c>
-      <c r="D42" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" t="s">
-        <v>172</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
@@ -2263,22 +2263,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" t="s">
         <v>173</v>
       </c>
-      <c r="C43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" t="s">
-        <v>175</v>
-      </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43">
         <v>25</v>
@@ -2289,19 +2289,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
         <v>178</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>179</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>180</v>
-      </c>
-      <c r="E44" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" t="s">
-        <v>182</v>
       </c>
       <c r="G44" t="s">
         <v>6</v>
@@ -2315,13 +2315,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" t="s">
         <v>183</v>
-      </c>
-      <c r="C45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" t="s">
-        <v>185</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
@@ -2335,13 +2335,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
@@ -2355,13 +2355,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G47" t="s">
         <v>6</v>
@@ -2375,13 +2375,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -2395,13 +2395,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G49" t="s">
         <v>6</v>
@@ -2415,16 +2415,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
         <v>190</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>191</v>
-      </c>
-      <c r="D50" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" t="s">
-        <v>193</v>
       </c>
       <c r="G50" t="s">
         <v>6</v>
@@ -2438,22 +2438,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" t="s">
         <v>194</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>195</v>
       </c>
-      <c r="D51" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" t="s">
-        <v>197</v>
-      </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I51">
         <v>25</v>
@@ -2464,22 +2464,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" t="s">
         <v>198</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>199</v>
       </c>
-      <c r="D52" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" t="s">
-        <v>201</v>
-      </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I52">
         <v>25</v>
@@ -2490,22 +2490,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" t="s">
         <v>202</v>
-      </c>
-      <c r="D53" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" t="s">
-        <v>204</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I53">
         <v>25</v>
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C54">
         <v>15</v>
@@ -2542,19 +2542,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" t="s">
         <v>207</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>208</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>209</v>
-      </c>
-      <c r="E55" t="s">
-        <v>210</v>
-      </c>
-      <c r="F55" t="s">
-        <v>211</v>
       </c>
       <c r="G55" t="s">
         <v>5</v>
@@ -2568,19 +2568,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" t="s">
         <v>212</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>213</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>214</v>
-      </c>
-      <c r="E56" t="s">
-        <v>215</v>
-      </c>
-      <c r="F56" t="s">
-        <v>216</v>
       </c>
       <c r="G56" t="s">
         <v>10</v>
@@ -2594,19 +2594,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" t="s">
         <v>217</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" t="s">
         <v>219</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>218</v>
-      </c>
-      <c r="E57" t="s">
-        <v>221</v>
-      </c>
-      <c r="F57" t="s">
-        <v>220</v>
       </c>
       <c r="G57" t="s">
         <v>5</v>
@@ -2620,13 +2620,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G58" t="s">
         <v>6</v>
@@ -2640,13 +2640,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G59" t="s">
         <v>5</v>
@@ -2660,19 +2660,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G60" t="s">
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I60">
         <v>25</v>
@@ -2683,13 +2683,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G61" t="s">
         <v>5</v>
@@ -2703,13 +2703,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G62" t="s">
         <v>6</v>
@@ -2723,13 +2723,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
@@ -2743,16 +2743,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" t="s">
         <v>229</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>230</v>
-      </c>
-      <c r="D64" t="s">
-        <v>231</v>
-      </c>
-      <c r="E64" t="s">
-        <v>232</v>
       </c>
       <c r="G64" t="s">
         <v>10</v>
@@ -2766,16 +2766,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" t="s">
         <v>233</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>234</v>
-      </c>
-      <c r="D65" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" t="s">
-        <v>236</v>
       </c>
       <c r="G65" t="s">
         <v>6</v>
@@ -2789,16 +2789,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" t="s">
         <v>237</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>238</v>
-      </c>
-      <c r="D66" t="s">
-        <v>239</v>
-      </c>
-      <c r="E66" t="s">
-        <v>240</v>
       </c>
       <c r="G66" t="s">
         <v>10</v>
@@ -2812,16 +2812,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" t="s">
         <v>241</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>242</v>
-      </c>
-      <c r="D67" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" t="s">
-        <v>244</v>
       </c>
       <c r="G67" t="s">
         <v>6</v>
@@ -2835,16 +2835,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" t="s">
         <v>245</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>246</v>
-      </c>
-      <c r="D68" t="s">
-        <v>247</v>
-      </c>
-      <c r="E68" t="s">
-        <v>248</v>
       </c>
       <c r="G68" t="s">
         <v>5</v>
@@ -2858,7 +2858,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C69">
         <v>1967</v>
@@ -2881,16 +2881,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" t="s">
         <v>250</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>251</v>
-      </c>
-      <c r="D70" t="s">
-        <v>252</v>
-      </c>
-      <c r="E70" t="s">
-        <v>253</v>
       </c>
       <c r="G70" t="s">
         <v>10</v>
@@ -2904,22 +2904,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D71" t="s">
         <v>254</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>255</v>
-      </c>
-      <c r="D71" t="s">
-        <v>256</v>
-      </c>
-      <c r="E71" t="s">
-        <v>257</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I71">
         <v>25</v>
@@ -2930,16 +2930,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" t="s">
         <v>258</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>259</v>
-      </c>
-      <c r="D72" t="s">
-        <v>260</v>
-      </c>
-      <c r="E72" t="s">
-        <v>261</v>
       </c>
       <c r="G72" t="s">
         <v>6</v>
